--- a/backend/data/odds/2021/Week_15.xlsx
+++ b/backend/data/odds/2021/Week_15.xlsx
@@ -853,12 +853,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+135</t>
+          <t>+125</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-155</t>
+          <t>-145</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -884,12 +884,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+225</t>
+          <t>+240</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-280</t>
+          <t>-305</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -915,12 +915,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-275</t>
+          <t>-475</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>+220</t>
+          <t>+350</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-305</t>
+          <t>-350</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>+240</t>
+          <t>+270</t>
         </is>
       </c>
       <c r="F17" t="n">
